--- a/Code/Results/Cases/Case_3_145/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_145/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.42564878775246</v>
+        <v>21.06924211128599</v>
       </c>
       <c r="C2">
-        <v>18.61819066928197</v>
+        <v>13.58868446670183</v>
       </c>
       <c r="D2">
-        <v>3.009194241749535</v>
+        <v>6.372331988624137</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>42.64360491436549</v>
+        <v>47.67677978485337</v>
       </c>
       <c r="G2">
-        <v>2.083686955962354</v>
+        <v>3.718125903691642</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.073189660595405</v>
+        <v>10.46194160280927</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.54092737167935</v>
+        <v>20.82179846458828</v>
       </c>
       <c r="N2">
-        <v>13.98263216646104</v>
+        <v>20.71968954315292</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.64542140069823</v>
+        <v>20.63667133388191</v>
       </c>
       <c r="C3">
-        <v>17.26418085642558</v>
+        <v>13.19193598703971</v>
       </c>
       <c r="D3">
-        <v>2.967354824684732</v>
+        <v>6.37239716649146</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>40.87870325609978</v>
+        <v>47.43714852535241</v>
       </c>
       <c r="G3">
-        <v>2.096658055910481</v>
+        <v>3.722575681919796</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.083594678694721</v>
+        <v>10.48446538920598</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.66260810824186</v>
+        <v>20.71457409415396</v>
       </c>
       <c r="N3">
-        <v>14.18502974126648</v>
+        <v>20.77557490723464</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.57693264553288</v>
+        <v>20.37345933097444</v>
       </c>
       <c r="C4">
-        <v>16.3952367887818</v>
+        <v>12.9469739269663</v>
       </c>
       <c r="D4">
-        <v>2.942466988370578</v>
+        <v>6.372625881170503</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>39.80805581410726</v>
+        <v>47.30249703531399</v>
       </c>
       <c r="G4">
-        <v>2.104771501301082</v>
+        <v>3.725447025913629</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.092877965318521</v>
+        <v>10.49949983060182</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.11650838270651</v>
+        <v>20.65381750008139</v>
       </c>
       <c r="N4">
-        <v>14.31420636858165</v>
+        <v>20.81186809679438</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.13235056248432</v>
+        <v>20.26696242165653</v>
       </c>
       <c r="C5">
-        <v>16.03151906130816</v>
+        <v>12.84698264906817</v>
       </c>
       <c r="D5">
-        <v>2.932498725105032</v>
+        <v>6.37276653022689</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>39.37526094594516</v>
+        <v>47.25079420846296</v>
       </c>
       <c r="G5">
-        <v>2.108119301208286</v>
+        <v>3.726652260587461</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.09736204850579</v>
+        <v>10.50592959237837</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.89245764428037</v>
+        <v>20.63035380065919</v>
       </c>
       <c r="N5">
-        <v>14.3680406576294</v>
+        <v>20.82715534648899</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.05797894628025</v>
+        <v>20.24932964446809</v>
       </c>
       <c r="C6">
-        <v>15.97053896833361</v>
+        <v>12.83037432381984</v>
       </c>
       <c r="D6">
-        <v>2.930853240418805</v>
+        <v>6.372792750549526</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>39.30361533062823</v>
+        <v>47.24240114956962</v>
       </c>
       <c r="G6">
-        <v>2.108677817819508</v>
+        <v>3.726854515436068</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.098148222042645</v>
+        <v>10.50701556099219</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.85516989243403</v>
+        <v>20.62653637404865</v>
       </c>
       <c r="N6">
-        <v>14.37705089109448</v>
+        <v>20.82972382264694</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.57097377764383</v>
+        <v>20.37201976545985</v>
       </c>
       <c r="C7">
-        <v>16.39037069660309</v>
+        <v>12.9456258505679</v>
       </c>
       <c r="D7">
-        <v>2.942331883990014</v>
+        <v>6.372627585904185</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>39.80220445206627</v>
+        <v>47.30178688705696</v>
       </c>
       <c r="G7">
-        <v>2.104816477819759</v>
+        <v>3.725463137660665</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.092935634661919</v>
+        <v>10.49958531713088</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.11349256669099</v>
+        <v>20.6534957944929</v>
       </c>
       <c r="N7">
-        <v>14.31492760965152</v>
+        <v>20.81207225198999</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.80644202522684</v>
+        <v>20.91969368572595</v>
       </c>
       <c r="C8">
-        <v>18.1590163812167</v>
+        <v>13.45226879281458</v>
       </c>
       <c r="D8">
-        <v>2.994583786985312</v>
+        <v>6.372315293947474</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>42.03248152531337</v>
+        <v>47.59158342489941</v>
       </c>
       <c r="G8">
-        <v>2.088130967811458</v>
+        <v>3.719631391759993</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.076159808014213</v>
+        <v>10.46945785640828</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.23959938561719</v>
+        <v>20.78378449237442</v>
       </c>
       <c r="N8">
-        <v>14.05137500030076</v>
+        <v>20.73854785243326</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.09433195691478</v>
+        <v>22.0055544572106</v>
       </c>
       <c r="C9">
-        <v>21.33847817740712</v>
+        <v>14.4278664995133</v>
       </c>
       <c r="D9">
-        <v>3.104865327148672</v>
+        <v>6.373200971469561</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>46.50384394406411</v>
+        <v>48.25738697385291</v>
       </c>
       <c r="G9">
-        <v>2.056391124589871</v>
+        <v>3.709292916147972</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.067547152931637</v>
+        <v>10.41993021436337</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.38804183754837</v>
+        <v>21.07871432633248</v>
       </c>
       <c r="N9">
-        <v>13.57568951448639</v>
+        <v>20.6100825669903</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.02668824327984</v>
+        <v>22.80137839644968</v>
       </c>
       <c r="C10">
-        <v>23.51404262953156</v>
+        <v>15.12487285325118</v>
       </c>
       <c r="D10">
-        <v>3.193047809795244</v>
+        <v>6.374767230511893</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>49.84999117094606</v>
+        <v>48.80363523764576</v>
       </c>
       <c r="G10">
-        <v>2.033345957106748</v>
+        <v>3.70235705488043</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.078052413098814</v>
+        <v>10.38935658845031</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.21703835996987</v>
+        <v>21.31815424806236</v>
       </c>
       <c r="N10">
-        <v>13.25528841883615</v>
+        <v>20.52529414129167</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.31856661019751</v>
+        <v>23.16115955341405</v>
       </c>
       <c r="C11">
-        <v>24.47327758700918</v>
+        <v>15.43602779064885</v>
       </c>
       <c r="D11">
-        <v>3.235382131312502</v>
+        <v>6.375679225272406</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>51.3887027917668</v>
+        <v>49.06393798038348</v>
       </c>
       <c r="G11">
-        <v>2.022835545900805</v>
+        <v>3.699343035067681</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.087003059856047</v>
+        <v>10.37670857289558</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.0727950849765</v>
+        <v>21.431715080178</v>
       </c>
       <c r="N11">
-        <v>13.11707314700812</v>
+        <v>20.48880894656754</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.802248502941</v>
+        <v>23.29693363299974</v>
       </c>
       <c r="C12">
-        <v>24.83257374589595</v>
+        <v>15.55288260427604</v>
       </c>
       <c r="D12">
-        <v>3.251800384192256</v>
+        <v>6.376053311651118</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>51.97424135906564</v>
+        <v>49.16415007592496</v>
       </c>
       <c r="G12">
-        <v>2.018843083619746</v>
+        <v>3.698221845748693</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.0910419568028</v>
+        <v>10.37210016584496</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.39294290994774</v>
+        <v>21.47535650627091</v>
       </c>
       <c r="N12">
-        <v>13.06595423372794</v>
+        <v>20.47529332120874</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.69831529676073</v>
+        <v>23.26771525191903</v>
       </c>
       <c r="C13">
-        <v>24.75536068772741</v>
+        <v>15.52776091414728</v>
       </c>
       <c r="D13">
-        <v>3.248245979192657</v>
+        <v>6.375971466713192</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.84799795994864</v>
+        <v>49.14249557053434</v>
       </c>
       <c r="G13">
-        <v>2.019703633691472</v>
+        <v>3.698462419790185</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.090142361602974</v>
+        <v>10.37308461450129</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.32416083252678</v>
+        <v>21.46592961914301</v>
       </c>
       <c r="N13">
-        <v>13.07690682023167</v>
+        <v>20.4781907763476</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.35846679129051</v>
+        <v>23.17233993217854</v>
       </c>
       <c r="C14">
-        <v>24.50291343182008</v>
+        <v>15.44566166041468</v>
       </c>
       <c r="D14">
-        <v>3.236724676275773</v>
+        <v>6.375709425425172</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>51.43681454314903</v>
+        <v>49.07214994090513</v>
       </c>
       <c r="G14">
-        <v>2.022507385792027</v>
+        <v>3.699250391026279</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.087322018233783</v>
+        <v>10.37632580695023</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.09920990652927</v>
+        <v>21.4352928600685</v>
       </c>
       <c r="N14">
-        <v>13.11284221305306</v>
+        <v>20.48769098115277</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.14959747573967</v>
+        <v>23.1138547934038</v>
       </c>
       <c r="C15">
-        <v>24.34778246873514</v>
+        <v>15.39524338686017</v>
       </c>
       <c r="D15">
-        <v>3.229720200987131</v>
+        <v>6.375552661048217</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>51.18534337329827</v>
+        <v>49.02927316764326</v>
       </c>
       <c r="G15">
-        <v>2.024222874278275</v>
+        <v>3.699735666701672</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.085680641498573</v>
+        <v>10.3783347161082</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.96092361221065</v>
+        <v>21.41660923021754</v>
       </c>
       <c r="N15">
-        <v>13.13501717616227</v>
+        <v>20.49354928788075</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.941457273317</v>
+        <v>22.77780816090297</v>
       </c>
       <c r="C16">
-        <v>23.45077714261936</v>
+        <v>15.10440839188114</v>
       </c>
       <c r="D16">
-        <v>3.190331357204917</v>
+        <v>6.374711647704717</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>49.74980231383898</v>
+        <v>48.78685669542914</v>
       </c>
       <c r="G16">
-        <v>2.034031596157352</v>
+        <v>3.702556856172624</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.077555507683035</v>
+        <v>10.39020851550389</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.16054478242535</v>
+        <v>21.31082370116311</v>
       </c>
       <c r="N16">
-        <v>13.26448373383281</v>
+        <v>20.52772055320145</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.18987370864165</v>
+        <v>22.5709744147259</v>
       </c>
       <c r="C17">
-        <v>22.89298237385544</v>
+        <v>14.92438461237293</v>
       </c>
       <c r="D17">
-        <v>3.166780651436334</v>
+        <v>6.374246839985251</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>48.87366176430626</v>
+        <v>48.64112758259761</v>
       </c>
       <c r="G17">
-        <v>2.040036361177752</v>
+        <v>3.704323613074234</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.073672806828316</v>
+        <v>10.39781538889093</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.6621733502333</v>
+        <v>21.24709576720583</v>
       </c>
       <c r="N17">
-        <v>13.3459252379634</v>
+        <v>20.54921809878249</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.75358692085652</v>
+        <v>22.4518061368499</v>
       </c>
       <c r="C18">
-        <v>22.56925864328309</v>
+        <v>14.82028932622915</v>
       </c>
       <c r="D18">
-        <v>3.153439101796538</v>
+        <v>6.373998269176023</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>48.37124473470726</v>
+        <v>48.55842349511301</v>
       </c>
       <c r="G18">
-        <v>2.043488178989895</v>
+        <v>3.705353097931055</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.071828930806875</v>
+        <v>10.40230927045066</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.37270372911279</v>
+        <v>21.21087952997042</v>
       </c>
       <c r="N18">
-        <v>13.39346781526935</v>
+        <v>20.56177917349828</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.60516689929863</v>
+        <v>22.4114274849361</v>
       </c>
       <c r="C19">
-        <v>22.45914212099143</v>
+        <v>14.78495383295922</v>
       </c>
       <c r="D19">
-        <v>3.148955079387501</v>
+        <v>6.373917330569745</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>48.20138374951259</v>
+        <v>48.53061458143421</v>
       </c>
       <c r="G19">
-        <v>2.044656805571536</v>
+        <v>3.705703951198495</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.071270088584455</v>
+        <v>10.40385119510524</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.27419987718899</v>
+        <v>21.19869347813209</v>
       </c>
       <c r="N19">
-        <v>13.40968140406071</v>
+        <v>20.56606582585495</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.27029110033333</v>
+        <v>22.59301430146203</v>
       </c>
       <c r="C20">
-        <v>22.95265729079165</v>
+        <v>14.94360633288875</v>
       </c>
       <c r="D20">
-        <v>3.169266078028442</v>
+        <v>6.374294376174232</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>48.96676866084423</v>
+        <v>48.65652565595654</v>
       </c>
       <c r="G20">
-        <v>2.039397404332012</v>
+        <v>3.704134164030714</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.074045491711879</v>
+        <v>10.39699334919344</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.71551520630327</v>
+        <v>21.25383454664555</v>
       </c>
       <c r="N20">
-        <v>13.33718235691692</v>
+        <v>20.54690933224578</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.45843382262581</v>
+        <v>23.2003677683303</v>
       </c>
       <c r="C21">
-        <v>24.57716657684644</v>
+        <v>15.46980351762925</v>
       </c>
       <c r="D21">
-        <v>3.240097648990442</v>
+        <v>6.375785613077039</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>51.55750653359645</v>
+        <v>49.09276809327263</v>
       </c>
       <c r="G21">
-        <v>2.021684267033913</v>
+        <v>3.699018398907097</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.088132366754241</v>
+        <v>10.37536887515959</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.16538636995827</v>
+        <v>21.44427452660083</v>
       </c>
       <c r="N21">
-        <v>13.10225275480482</v>
+        <v>20.48489237922781</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.85662493929684</v>
+        <v>23.59452375956836</v>
       </c>
       <c r="C22">
-        <v>25.61613730565319</v>
+        <v>15.80798506964681</v>
       </c>
       <c r="D22">
-        <v>3.288688271823263</v>
+        <v>6.376927731132737</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>53.26776236403118</v>
+        <v>49.3874143258556</v>
       </c>
       <c r="G22">
-        <v>2.010030433316303</v>
+        <v>3.695792361666695</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.10115265136983</v>
+        <v>10.36229171457792</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.09038834101157</v>
+        <v>21.57244509231595</v>
       </c>
       <c r="N22">
-        <v>12.95591275539263</v>
+        <v>20.44611273789007</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.11310317417646</v>
+        <v>23.38445572764288</v>
       </c>
       <c r="C23">
-        <v>25.06353715610224</v>
+        <v>15.62805178804612</v>
       </c>
       <c r="D23">
-        <v>3.262518298220121</v>
+        <v>6.376302817149322</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>52.35319086010043</v>
+        <v>49.22930332734401</v>
       </c>
       <c r="G23">
-        <v>2.016260564071386</v>
+        <v>3.697503461851132</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.093836355344054</v>
+        <v>10.36917467083943</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.59862826632535</v>
+        <v>21.50370860436618</v>
       </c>
       <c r="N23">
-        <v>13.03330458493059</v>
+        <v>20.46664963039101</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.23394749110759</v>
+        <v>22.58305085748264</v>
       </c>
       <c r="C24">
-        <v>22.9256877615903</v>
+        <v>14.9349180438597</v>
       </c>
       <c r="D24">
-        <v>3.168141804664999</v>
+        <v>6.374272826965559</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>48.92467105544128</v>
+        <v>48.6495608264426</v>
       </c>
       <c r="G24">
-        <v>2.03968627735087</v>
+        <v>3.704219771095453</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.073875794943877</v>
+        <v>10.39736461772803</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.69140856591192</v>
+        <v>21.25078662849146</v>
       </c>
       <c r="N24">
-        <v>13.34113277834127</v>
+        <v>20.54795249692886</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.97414782148274</v>
+        <v>21.71149886662935</v>
       </c>
       <c r="C25">
-        <v>20.50780892907263</v>
+        <v>14.16681686988157</v>
       </c>
       <c r="D25">
-        <v>3.073970344536392</v>
+        <v>6.372800778475423</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>45.28407108910262</v>
+        <v>48.06705616801953</v>
       </c>
       <c r="G25">
-        <v>2.064903465519293</v>
+        <v>3.7119732072414</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.06708056569454</v>
+        <v>10.43230705676025</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.81380991311536</v>
+        <v>20.99483223676532</v>
       </c>
       <c r="N25">
-        <v>13.69961371237622</v>
+        <v>20.64315202352579</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_145/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_145/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.06924211128599</v>
+        <v>25.42564878775242</v>
       </c>
       <c r="C2">
-        <v>13.58868446670183</v>
+        <v>18.61819066928194</v>
       </c>
       <c r="D2">
-        <v>6.372331988624137</v>
+        <v>3.009194241749275</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>47.67677978485337</v>
+        <v>42.64360491436547</v>
       </c>
       <c r="G2">
-        <v>3.718125903691642</v>
+        <v>2.083686955962356</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.46194160280927</v>
+        <v>6.073189660595403</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.82179846458828</v>
+        <v>17.54092737167934</v>
       </c>
       <c r="N2">
-        <v>20.71968954315292</v>
+        <v>13.98263216646104</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.63667133388191</v>
+        <v>23.64542140069826</v>
       </c>
       <c r="C3">
-        <v>13.19193598703971</v>
+        <v>17.26418085642554</v>
       </c>
       <c r="D3">
-        <v>6.37239716649146</v>
+        <v>2.967354824684599</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.43714852535241</v>
+        <v>40.87870325609976</v>
       </c>
       <c r="G3">
-        <v>3.722575681919796</v>
+        <v>2.096658055910479</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.48446538920598</v>
+        <v>6.08359467869472</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20.71457409415396</v>
+        <v>16.66260810824185</v>
       </c>
       <c r="N3">
-        <v>20.77557490723464</v>
+        <v>14.18502974126647</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.37345933097444</v>
+        <v>22.57693264553287</v>
       </c>
       <c r="C4">
-        <v>12.9469739269663</v>
+        <v>16.39523678878178</v>
       </c>
       <c r="D4">
-        <v>6.372625881170503</v>
+        <v>2.942466988370511</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>47.30249703531399</v>
+        <v>39.80805581410725</v>
       </c>
       <c r="G4">
-        <v>3.725447025913629</v>
+        <v>2.104771501301478</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.49949983060182</v>
+        <v>6.092877965318496</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>20.65381750008139</v>
+        <v>16.11650838270648</v>
       </c>
       <c r="N4">
-        <v>20.81186809679438</v>
+        <v>14.31420636858163</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.26696242165653</v>
+        <v>22.13235056248432</v>
       </c>
       <c r="C5">
-        <v>12.84698264906817</v>
+        <v>16.03151906130826</v>
       </c>
       <c r="D5">
-        <v>6.37276653022689</v>
+        <v>2.932498725105032</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>47.25079420846296</v>
+        <v>39.37526094594489</v>
       </c>
       <c r="G5">
-        <v>3.726652260587461</v>
+        <v>2.108119301208413</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.50592959237837</v>
+        <v>6.097362048505782</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20.63035380065919</v>
+        <v>15.8924576442803</v>
       </c>
       <c r="N5">
-        <v>20.82715534648899</v>
+        <v>14.3680406576293</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.24932964446809</v>
+        <v>22.0579789462802</v>
       </c>
       <c r="C6">
-        <v>12.83037432381984</v>
+        <v>15.97053896833367</v>
       </c>
       <c r="D6">
-        <v>6.372792750549526</v>
+        <v>2.930853240418871</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>47.24240114956962</v>
+        <v>39.30361533062802</v>
       </c>
       <c r="G6">
-        <v>3.726854515436068</v>
+        <v>2.108677817819644</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.50701556099219</v>
+        <v>6.098148222042703</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>20.62653637404865</v>
+        <v>15.85516989243401</v>
       </c>
       <c r="N6">
-        <v>20.82972382264694</v>
+        <v>14.37705089109438</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.37201976545985</v>
+        <v>22.57097377764381</v>
       </c>
       <c r="C7">
-        <v>12.9456258505679</v>
+        <v>16.39037069660304</v>
       </c>
       <c r="D7">
-        <v>6.372627585904185</v>
+        <v>2.942331883989949</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>47.30178688705696</v>
+        <v>39.80220445206608</v>
       </c>
       <c r="G7">
-        <v>3.725463137660665</v>
+        <v>2.104816477819623</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.49958531713088</v>
+        <v>6.092935634661896</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>20.6534957944929</v>
+        <v>16.11349256669094</v>
       </c>
       <c r="N7">
-        <v>20.81207225198999</v>
+        <v>14.31492760965142</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.91969368572595</v>
+        <v>24.80644202522679</v>
       </c>
       <c r="C8">
-        <v>13.45226879281458</v>
+        <v>18.15901638121666</v>
       </c>
       <c r="D8">
-        <v>6.372315293947474</v>
+        <v>2.994583786985055</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>47.59158342489941</v>
+        <v>42.03248152531329</v>
       </c>
       <c r="G8">
-        <v>3.719631391759993</v>
+        <v>2.088130967811464</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.46945785640828</v>
+        <v>6.076159808014159</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>20.78378449237442</v>
+        <v>17.23959938561718</v>
       </c>
       <c r="N8">
-        <v>20.73854785243326</v>
+        <v>14.05137500030072</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.0055544572106</v>
+        <v>29.09433195691466</v>
       </c>
       <c r="C9">
-        <v>14.4278664995133</v>
+        <v>21.33847817740715</v>
       </c>
       <c r="D9">
-        <v>6.373200971469561</v>
+        <v>3.104865327148606</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>48.25738697385291</v>
+        <v>46.50384394406404</v>
       </c>
       <c r="G9">
-        <v>3.709292916147972</v>
+        <v>2.056391124590005</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.41993021436337</v>
+        <v>6.067547152931659</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.07871432633248</v>
+        <v>19.38804183754837</v>
       </c>
       <c r="N9">
-        <v>20.6100825669903</v>
+        <v>13.57568951448648</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.80137839644968</v>
+        <v>32.02668824327991</v>
       </c>
       <c r="C10">
-        <v>15.12487285325118</v>
+        <v>23.5140426295315</v>
       </c>
       <c r="D10">
-        <v>6.374767230511893</v>
+        <v>3.193047809795177</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.80363523764576</v>
+        <v>49.84999117094607</v>
       </c>
       <c r="G10">
-        <v>3.70235705488043</v>
+        <v>2.033345957106485</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.38935658845031</v>
+        <v>6.07805241309881</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.31815424806236</v>
+        <v>21.2170383599699</v>
       </c>
       <c r="N10">
-        <v>20.52529414129167</v>
+        <v>13.25528841883613</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.16115955341405</v>
+        <v>33.3185666101976</v>
       </c>
       <c r="C11">
-        <v>15.43602779064885</v>
+        <v>24.4732775870092</v>
       </c>
       <c r="D11">
-        <v>6.375679225272406</v>
+        <v>3.235382131312691</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.06393798038348</v>
+        <v>51.38870279176682</v>
       </c>
       <c r="G11">
-        <v>3.699343035067681</v>
+        <v>2.022835545900802</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.37670857289558</v>
+        <v>6.087003059855969</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.431715080178</v>
+        <v>22.07279508497653</v>
       </c>
       <c r="N11">
-        <v>20.48880894656754</v>
+        <v>13.11707314700807</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.29693363299974</v>
+        <v>33.80224850294103</v>
       </c>
       <c r="C12">
-        <v>15.55288260427604</v>
+        <v>24.83257374589602</v>
       </c>
       <c r="D12">
-        <v>6.376053311651118</v>
+        <v>3.251800384192183</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.16415007592496</v>
+        <v>51.97424135906557</v>
       </c>
       <c r="G12">
-        <v>3.698221845748693</v>
+        <v>2.018843083619735</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.37210016584496</v>
+        <v>6.091041956802749</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.47535650627091</v>
+        <v>22.39294290994784</v>
       </c>
       <c r="N12">
-        <v>20.47529332120874</v>
+        <v>13.06595423372788</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.26771525191903</v>
+        <v>33.6983152967607</v>
       </c>
       <c r="C13">
-        <v>15.52776091414728</v>
+        <v>24.75536068772751</v>
       </c>
       <c r="D13">
-        <v>6.375971466713192</v>
+        <v>3.24824597919252</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.14249557053434</v>
+        <v>51.84799795994859</v>
       </c>
       <c r="G13">
-        <v>3.698462419790185</v>
+        <v>2.019703633691339</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.37308461450129</v>
+        <v>6.09014236160295</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.46592961914301</v>
+        <v>22.3241608325268</v>
       </c>
       <c r="N13">
-        <v>20.4781907763476</v>
+        <v>13.07690682023161</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.17233993217854</v>
+        <v>33.35846679129055</v>
       </c>
       <c r="C14">
-        <v>15.44566166041468</v>
+        <v>24.50291343182011</v>
       </c>
       <c r="D14">
-        <v>6.375709425425172</v>
+        <v>3.236724676275776</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.07214994090513</v>
+        <v>51.43681454314908</v>
       </c>
       <c r="G14">
-        <v>3.699250391026279</v>
+        <v>2.022507385791765</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.37632580695023</v>
+        <v>6.087322018233759</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.4352928600685</v>
+        <v>22.09920990652931</v>
       </c>
       <c r="N14">
-        <v>20.48769098115277</v>
+        <v>13.1128422130531</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.1138547934038</v>
+        <v>33.14959747573968</v>
       </c>
       <c r="C15">
-        <v>15.39524338686017</v>
+        <v>24.34778246873506</v>
       </c>
       <c r="D15">
-        <v>6.375552661048217</v>
+        <v>3.229720200987001</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.02927316764326</v>
+        <v>51.18534337329827</v>
       </c>
       <c r="G15">
-        <v>3.699735666701672</v>
+        <v>2.024222874278137</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.3783347161082</v>
+        <v>6.085680641498657</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.41660923021754</v>
+        <v>21.96092361221064</v>
       </c>
       <c r="N15">
-        <v>20.49354928788075</v>
+        <v>13.13501717616229</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.77780816090297</v>
+        <v>31.94145727331687</v>
       </c>
       <c r="C16">
-        <v>15.10440839188114</v>
+        <v>23.45077714261924</v>
       </c>
       <c r="D16">
-        <v>6.374711647704717</v>
+        <v>3.190331357204652</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>48.78685669542914</v>
+        <v>49.74980231383897</v>
       </c>
       <c r="G16">
-        <v>3.702556856172624</v>
+        <v>2.034031596157619</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.39020851550389</v>
+        <v>6.077555507683027</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.31082370116311</v>
+        <v>21.16054478242531</v>
       </c>
       <c r="N16">
-        <v>20.52772055320145</v>
+        <v>13.26448373383285</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.5709744147259</v>
+        <v>31.18987370864172</v>
       </c>
       <c r="C17">
-        <v>14.92438461237293</v>
+        <v>22.89298237385548</v>
       </c>
       <c r="D17">
-        <v>6.374246839985251</v>
+        <v>3.166780651436274</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>48.64112758259761</v>
+        <v>48.87366176430621</v>
       </c>
       <c r="G17">
-        <v>3.704323613074234</v>
+        <v>2.040036361177487</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.39781538889093</v>
+        <v>6.073672806828291</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.24709576720583</v>
+        <v>20.66217335023336</v>
       </c>
       <c r="N17">
-        <v>20.54921809878249</v>
+        <v>13.34592523796329</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.4518061368499</v>
+        <v>30.75358692085652</v>
       </c>
       <c r="C18">
-        <v>14.82028932622915</v>
+        <v>22.56925864328306</v>
       </c>
       <c r="D18">
-        <v>6.373998269176023</v>
+        <v>3.153439101796474</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>48.55842349511301</v>
+        <v>48.37124473470726</v>
       </c>
       <c r="G18">
-        <v>3.705353097931055</v>
+        <v>2.04348817899002</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.40230927045066</v>
+        <v>6.071828930806928</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.21087952997042</v>
+        <v>20.3727037291128</v>
       </c>
       <c r="N18">
-        <v>20.56177917349828</v>
+        <v>13.39346781526935</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.4114274849361</v>
+        <v>30.6051668992988</v>
       </c>
       <c r="C19">
-        <v>14.78495383295922</v>
+        <v>22.45914212099159</v>
       </c>
       <c r="D19">
-        <v>6.373917330569745</v>
+        <v>3.148955079387432</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>48.53061458143421</v>
+        <v>48.20138374951249</v>
       </c>
       <c r="G19">
-        <v>3.705703951198495</v>
+        <v>2.044656805571398</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.40385119510524</v>
+        <v>6.071270088584554</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.19869347813209</v>
+        <v>20.27419987718909</v>
       </c>
       <c r="N19">
-        <v>20.56606582585495</v>
+        <v>13.40968140406057</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.59301430146203</v>
+        <v>31.27029110033336</v>
       </c>
       <c r="C20">
-        <v>14.94360633288875</v>
+        <v>22.95265729079175</v>
       </c>
       <c r="D20">
-        <v>6.374294376174232</v>
+        <v>3.169266078028309</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>48.65652565595654</v>
+        <v>48.96676866084423</v>
       </c>
       <c r="G20">
-        <v>3.704134164030714</v>
+        <v>2.03939740433188</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.39699334919344</v>
+        <v>6.074045491711932</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.25383454664555</v>
+        <v>20.71551520630329</v>
       </c>
       <c r="N20">
-        <v>20.54690933224578</v>
+        <v>13.33718235691685</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.2003677683303</v>
+        <v>33.45843382262585</v>
       </c>
       <c r="C21">
-        <v>15.46980351762925</v>
+        <v>24.57716657684642</v>
       </c>
       <c r="D21">
-        <v>6.375785613077039</v>
+        <v>3.240097648990505</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.09276809327263</v>
+        <v>51.5575065335965</v>
       </c>
       <c r="G21">
-        <v>3.699018398907097</v>
+        <v>2.021684267033906</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.37536887515959</v>
+        <v>6.088132366754301</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.44427452660083</v>
+        <v>22.16538636995828</v>
       </c>
       <c r="N21">
-        <v>20.48489237922781</v>
+        <v>13.10225275480484</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.59452375956836</v>
+        <v>34.85662493929681</v>
       </c>
       <c r="C22">
-        <v>15.80798506964681</v>
+        <v>25.61613730565326</v>
       </c>
       <c r="D22">
-        <v>6.376927731132737</v>
+        <v>3.288688271823127</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>49.3874143258556</v>
+        <v>53.26776236403114</v>
       </c>
       <c r="G22">
-        <v>3.695792361666695</v>
+        <v>2.0100304333163</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.36229171457792</v>
+        <v>6.101152651369858</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.57244509231595</v>
+        <v>23.0903883410116</v>
       </c>
       <c r="N22">
-        <v>20.44611273789007</v>
+        <v>12.95591275539261</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.38445572764288</v>
+        <v>34.11310317417649</v>
       </c>
       <c r="C23">
-        <v>15.62805178804612</v>
+        <v>25.06353715610229</v>
       </c>
       <c r="D23">
-        <v>6.376302817149322</v>
+        <v>3.262518298220191</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.22930332734401</v>
+        <v>52.35319086010052</v>
       </c>
       <c r="G23">
-        <v>3.697503461851132</v>
+        <v>2.016260564071522</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.36917467083943</v>
+        <v>6.09383635534401</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.50370860436618</v>
+        <v>22.59862826632537</v>
       </c>
       <c r="N23">
-        <v>20.46664963039101</v>
+        <v>13.0333045849306</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.58305085748264</v>
+        <v>31.23394749110749</v>
       </c>
       <c r="C24">
-        <v>14.9349180438597</v>
+        <v>22.92568776159037</v>
       </c>
       <c r="D24">
-        <v>6.374272826965559</v>
+        <v>3.168141804664867</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>48.6495608264426</v>
+        <v>48.92467105544123</v>
       </c>
       <c r="G24">
-        <v>3.704219771095453</v>
+        <v>2.039686277351138</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.39736461772803</v>
+        <v>6.073875794943855</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.25078662849146</v>
+        <v>20.6914085659119</v>
       </c>
       <c r="N24">
-        <v>20.54795249692886</v>
+        <v>13.34113277834132</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.71149886662935</v>
+        <v>27.97414782148276</v>
       </c>
       <c r="C25">
-        <v>14.16681686988157</v>
+        <v>20.50780892907267</v>
       </c>
       <c r="D25">
-        <v>6.372800778475423</v>
+        <v>3.073970344536331</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>48.06705616801953</v>
+        <v>45.28407108910256</v>
       </c>
       <c r="G25">
-        <v>3.7119732072414</v>
+        <v>2.06490346551916</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.43230705676025</v>
+        <v>6.067080565694511</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.99483223676532</v>
+        <v>18.81380991311534</v>
       </c>
       <c r="N25">
-        <v>20.64315202352579</v>
+        <v>13.69961371237624</v>
       </c>
       <c r="O25">
         <v>0</v>
